--- a/code/simulations_list/List.xlsx
+++ b/code/simulations_list/List.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achom\Desktop\Main\Code\Scientific-Computing\Physics-Neural-Networks\PINN\code\Simulation_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achom\Desktop\Main\Code\Scientific-Computing\Physics-Neural-Networks\PINN\code\simulations_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7040B2-47B9-49F4-BB0E-E1F118A1EBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F616BA-5438-4601-A2C8-875DB1F1BB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations_1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Simulations_2" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Simulations" sheetId="4" r:id="rId3"/>
-    <sheet name="Results" sheetId="5" r:id="rId4"/>
-    <sheet name="Notes" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Notes" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="72">
   <si>
     <t>HL</t>
   </si>
@@ -220,18 +219,6 @@
   </si>
   <si>
     <t>mas o menos mal</t>
-  </si>
-  <si>
-    <t>* continuidad absoluta</t>
-  </si>
-  <si>
-    <t>* continuidad desplazamiento</t>
-  </si>
-  <si>
-    <t>* no sacar relativo !</t>
-  </si>
-  <si>
-    <t>ordenar resultados en tablas (cruce entre cuantitativo y cualitativo)</t>
   </si>
   <si>
     <t>S99</t>
@@ -1881,10 +1868,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:X52"/>
+  <dimension ref="B2:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="B2:L33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2139,7 +2126,7 @@
         <v>58</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>43</v>
@@ -2194,7 +2181,7 @@
         <v>58</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>40</v>
@@ -2318,7 +2305,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>33</v>
@@ -2375,10 +2362,10 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O11" s="9" t="s">
         <v>43</v>
@@ -2428,7 +2415,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.35">
@@ -2851,7 +2838,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>43</v>
@@ -2870,14 +2857,14 @@
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>43</v>
@@ -2896,7 +2883,7 @@
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="14" t="s">
@@ -2905,7 +2892,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>43</v>
@@ -2931,7 +2918,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>43</v>
@@ -2949,7 +2936,7 @@
         <v>41</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -2959,7 +2946,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>43</v>
@@ -2977,10 +2964,10 @@
         <v>41</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="14" t="s">
@@ -2989,7 +2976,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>43</v>
@@ -3005,7 +2992,7 @@
         <v>41</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -3015,7 +3002,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>43</v>
@@ -3032,7 +3019,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="14" t="s">
@@ -3062,26 +3049,6 @@
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E52" t="s">
-        <v>63</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3101,18 +3068,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7CBB0E-FBF7-40F5-9295-CCF3B9CAA2E6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D6C6CF-4BBF-4C2E-8C4B-020B001B42AA}">
   <dimension ref="B2:B3"/>
   <sheetViews>
